--- a/NREGA_Schemetic_Register/Data/Sector Wise.xlsx
+++ b/NREGA_Schemetic_Register/Data/Sector Wise.xlsx
@@ -1,28 +1,77 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="20730"/>
   <workbookPr defaultThemeVersion="124226"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Documents\NREGA_7_REGISTER_SCRAPPER\NREGA_Schemetic_Register\Data\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B391BF53-4052-4A40-A79C-EBBEAABAA337}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="120" yWindow="90" windowWidth="23895" windowHeight="14535"/>
+    <workbookView xWindow="120" yWindow="90" windowWidth="23895" windowHeight="14535" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet sheetId="1" r:id="rId1" name="Sector_Wise"/>
+    <sheet name="Sector_Wise" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="Sector_Wise">'Sector_Wise'!$A$1:$D$6</definedName>
+    <definedName name="Sector_Wise">Sector_Wise!$A$1:$D$6</definedName>
   </definedNames>
-  <calcPr calcId="125725" fullCalcOnLoad="true"/>
+  <calcPr calcId="179021"/>
 </workbook>
 </file>
 
+<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10" uniqueCount="10">
+  <si>
+    <t>Sector</t>
+  </si>
+  <si>
+    <t>Wage Amount</t>
+  </si>
+  <si>
+    <t>SSK Amount</t>
+  </si>
+  <si>
+    <t>Material Amount</t>
+  </si>
+  <si>
+    <t>DP</t>
+  </si>
+  <si>
+    <t>FP</t>
+  </si>
+  <si>
+    <t>IF</t>
+  </si>
+  <si>
+    <t>RC</t>
+  </si>
+  <si>
+    <t>WC</t>
+  </si>
+  <si>
+    <t>Total</t>
+  </si>
+</sst>
+</file>
+
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="MS Sans Serif"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
@@ -35,7 +84,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="1">
+  <borders count="2">
     <border>
       <left/>
       <right/>
@@ -43,18 +92,50 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
@@ -101,7 +182,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -133,9 +214,27 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -167,6 +266,24 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -342,118 +459,130 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:D6"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:E6"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0" rightToLeft="false">
-      <selection activeCell="C5" sqref="C5"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="G6" sqref="G6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="6.5703125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="13.85546875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="11.7109375" bestFit="1" customWidth="1"/>
+    <col min="4" max="5" width="10.5703125" bestFit="1" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row outlineLevel="0" r="1">
-      <c r="A1" s="0" t="inlineStr">
-        <is>
-          <t>Sector</t>
-        </is>
-      </c>
-      <c r="B1" s="0" t="inlineStr">
-        <is>
-          <t>Wage Amount</t>
-        </is>
-      </c>
-      <c r="C1" s="0" t="inlineStr">
-        <is>
-          <t>SSK Amount</t>
-        </is>
-      </c>
-      <c r="D1" s="0" t="inlineStr">
-        <is>
-          <t>Material Amount</t>
-        </is>
+    <row r="1" spans="1:5" ht="39.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="2" t="s">
+        <v>9</v>
       </c>
     </row>
-    <row outlineLevel="0" r="2">
-      <c r="A2" s="0" t="inlineStr">
-        <is>
-          <t>DP</t>
-        </is>
-      </c>
-      <c r="B2" s="0">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A2" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="B2" s="3">
         <v>10224</v>
       </c>
-      <c r="C2" s="0">
+      <c r="C2" s="3">
         <v>0</v>
       </c>
-      <c r="D2" s="0">
+      <c r="D2" s="3">
         <v>2678.57</v>
       </c>
+      <c r="E2" s="3">
+        <f>B2+C2+D2</f>
+        <v>12902.57</v>
+      </c>
     </row>
-    <row outlineLevel="0" r="3">
-      <c r="A3" s="0" t="inlineStr">
-        <is>
-          <t>FP</t>
-        </is>
-      </c>
-      <c r="B3" s="0">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A3" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3" s="3">
         <v>407740</v>
       </c>
-      <c r="C3" s="0">
+      <c r="C3" s="3">
         <v>17262</v>
       </c>
-      <c r="D3" s="0">
+      <c r="D3" s="3">
         <v>10678.57</v>
       </c>
+      <c r="E3" s="3">
+        <f t="shared" ref="E3:E6" si="0">B3+C3+D3</f>
+        <v>435680.57</v>
+      </c>
     </row>
-    <row outlineLevel="0" r="4">
-      <c r="A4" s="0" t="inlineStr">
-        <is>
-          <t>IF</t>
-        </is>
-      </c>
-      <c r="B4" s="0">
+    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A4" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="B4" s="3">
         <v>4330038</v>
       </c>
-      <c r="C4" s="0">
+      <c r="C4" s="3">
         <v>13464</v>
       </c>
-      <c r="D4" s="0">
+      <c r="D4" s="3">
         <v>11357.14</v>
       </c>
+      <c r="E4" s="3">
+        <f t="shared" si="0"/>
+        <v>4354859.1399999997</v>
+      </c>
     </row>
-    <row outlineLevel="0" r="5">
-      <c r="A5" s="0" t="inlineStr">
-        <is>
-          <t>RC</t>
-        </is>
-      </c>
-      <c r="B5" s="0">
+    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A5" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="B5" s="3">
         <v>1098265</v>
       </c>
-      <c r="C5" s="0">
+      <c r="C5" s="3">
         <v>119571</v>
       </c>
-      <c r="D5" s="0">
+      <c r="D5" s="3">
         <v>3712760</v>
       </c>
+      <c r="E5" s="3">
+        <f t="shared" si="0"/>
+        <v>4930596</v>
+      </c>
     </row>
-    <row outlineLevel="0" r="6">
-      <c r="A6" s="0" t="inlineStr">
-        <is>
-          <t>WC</t>
-        </is>
-      </c>
-      <c r="B6" s="0">
+    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A6" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B6" s="3">
         <v>183753</v>
       </c>
-      <c r="C6" s="0">
+      <c r="C6" s="3">
         <v>5751</v>
       </c>
-      <c r="D6" s="0">
+      <c r="D6" s="3">
         <v>2678.57</v>
+      </c>
+      <c r="E6" s="3">
+        <f t="shared" si="0"/>
+        <v>192182.57</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>